--- a/team_specific_matrix/Tennessee St._B.xlsx
+++ b/team_specific_matrix/Tennessee St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2014134275618374</v>
+        <v>0.2071823204419889</v>
       </c>
       <c r="C2">
-        <v>0.5371024734982333</v>
+        <v>0.5359116022099447</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02473498233215548</v>
+        <v>0.01933701657458563</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1519434628975265</v>
+        <v>0.1574585635359116</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08480565371024736</v>
+        <v>0.08011049723756906</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="C3">
-        <v>0.04968944099378882</v>
+        <v>0.04433497536945813</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01863354037267081</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7701863354037267</v>
+        <v>0.7536945812807881</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1614906832298137</v>
+        <v>0.1773399014778325</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02777777777777778</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6111111111111112</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3611111111111111</v>
+        <v>0.3953488372093023</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.049079754601227</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01226993865030675</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06134969325153374</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2699386503067485</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03067484662576687</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1411042944785276</v>
+        <v>0.125</v>
       </c>
       <c r="R6">
-        <v>0.03067484662576687</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="S6">
-        <v>0.4049079754601227</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1301775147928994</v>
+        <v>0.1273584905660377</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01775147928994083</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07100591715976332</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1005917159763314</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01775147928994083</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1597633136094675</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="R7">
-        <v>0.09467455621301775</v>
+        <v>0.09905660377358491</v>
       </c>
       <c r="S7">
-        <v>0.408284023668639</v>
+        <v>0.4009433962264151</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1382352941176471</v>
+        <v>0.1236203090507726</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02647058823529412</v>
+        <v>0.02207505518763797</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05588235294117647</v>
+        <v>0.06181015452538632</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1147058823529412</v>
+        <v>0.1169977924944812</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02647058823529412</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1441176470588235</v>
+        <v>0.1479028697571744</v>
       </c>
       <c r="R8">
-        <v>0.09411764705882353</v>
+        <v>0.09271523178807947</v>
       </c>
       <c r="S8">
-        <v>0.4</v>
+        <v>0.4083885209713024</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1203007518796992</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02255639097744361</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06766917293233082</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.1488095238095238</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01503759398496241</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1203007518796992</v>
+        <v>0.1130952380952381</v>
       </c>
       <c r="R9">
-        <v>0.06015037593984962</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="S9">
-        <v>0.4511278195488722</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1322482197355035</v>
+        <v>0.1315996847911741</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02034587995930824</v>
+        <v>0.01891252955082742</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007880220646178094</v>
       </c>
       <c r="F10">
-        <v>0.06510681586978637</v>
+        <v>0.06540583136327817</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.121057985757884</v>
+        <v>0.1252955082742317</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0254323499491353</v>
+        <v>0.02206461780929866</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2207527975584944</v>
+        <v>0.2159180457052798</v>
       </c>
       <c r="R10">
-        <v>0.06307222787385554</v>
+        <v>0.06461780929866036</v>
       </c>
       <c r="S10">
-        <v>0.3519837232960326</v>
+        <v>0.355397951142632</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1361702127659574</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07659574468085106</v>
+        <v>0.06711409395973154</v>
       </c>
       <c r="K11">
-        <v>0.1872340425531915</v>
+        <v>0.2046979865771812</v>
       </c>
       <c r="L11">
-        <v>0.574468085106383</v>
+        <v>0.5570469798657718</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02553191489361702</v>
+        <v>0.02348993288590604</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7482517482517482</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1398601398601399</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="K12">
-        <v>0.006993006993006993</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="L12">
-        <v>0.06993006993006994</v>
+        <v>0.0625</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03496503496503497</v>
+        <v>0.02840909090909091</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8108108108108109</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1621621621621622</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02702702702702703</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006060606060606061</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1575757575757576</v>
+        <v>0.1560975609756098</v>
       </c>
       <c r="I15">
-        <v>0.0303030303030303</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3268292682926829</v>
       </c>
       <c r="K15">
-        <v>0.06060606060606061</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02424242424242424</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N15">
-        <v>0.006060606060606061</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="O15">
-        <v>0.06666666666666667</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3151515151515151</v>
+        <v>0.3170731707317073</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01621621621621622</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.172972972972973</v>
+        <v>0.162280701754386</v>
       </c>
       <c r="I16">
-        <v>0.08108108108108109</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J16">
-        <v>0.4270270270270271</v>
+        <v>0.4429824561403509</v>
       </c>
       <c r="K16">
-        <v>0.1135135135135135</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01621621621621622</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="N16">
-        <v>0.005405405405405406</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="O16">
-        <v>0.04864864864864865</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1189189189189189</v>
+        <v>0.1140350877192982</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01208459214501511</v>
+        <v>0.01431980906921241</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1601208459214502</v>
+        <v>0.1646778042959427</v>
       </c>
       <c r="I17">
-        <v>0.1117824773413897</v>
+        <v>0.1121718377088305</v>
       </c>
       <c r="J17">
-        <v>0.4380664652567976</v>
+        <v>0.4391408114558473</v>
       </c>
       <c r="K17">
-        <v>0.1027190332326284</v>
+        <v>0.09069212410501193</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01812688821752266</v>
+        <v>0.02147971360381861</v>
       </c>
       <c r="N17">
-        <v>0.003021148036253776</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="O17">
-        <v>0.03927492447129909</v>
+        <v>0.04534606205250596</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1148036253776435</v>
+        <v>0.1097852028639618</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02521008403361345</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1512605042016807</v>
+        <v>0.1677018633540373</v>
       </c>
       <c r="I18">
-        <v>0.05882352941176471</v>
+        <v>0.06832298136645963</v>
       </c>
       <c r="J18">
-        <v>0.5042016806722689</v>
+        <v>0.4658385093167702</v>
       </c>
       <c r="K18">
-        <v>0.1008403361344538</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008403361344537815</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05042016806722689</v>
+        <v>0.05590062111801242</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1008403361344538</v>
+        <v>0.1055900621118012</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01743589743589744</v>
+        <v>0.01494885916601102</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2153846153846154</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="I19">
-        <v>0.07384615384615385</v>
+        <v>0.06845003933910307</v>
       </c>
       <c r="J19">
-        <v>0.3743589743589744</v>
+        <v>0.3776553894571204</v>
       </c>
       <c r="K19">
-        <v>0.1158974358974359</v>
+        <v>0.1132966168371361</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02461538461538462</v>
+        <v>0.02281667977970102</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007867820613690008</v>
       </c>
       <c r="O19">
-        <v>0.06564102564102564</v>
+        <v>0.05900865460267506</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1128205128205128</v>
+        <v>0.1172305271439811</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Tennessee St._B.xlsx
+++ b/team_specific_matrix/Tennessee St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2071823204419889</v>
+        <v>0.1965174129353234</v>
       </c>
       <c r="C2">
-        <v>0.5359116022099447</v>
+        <v>0.5597014925373134</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01933701657458563</v>
+        <v>0.01741293532338309</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1574585635359116</v>
+        <v>0.1517412935323383</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08011049723756906</v>
+        <v>0.07462686567164178</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004926108374384237</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="C3">
-        <v>0.04433497536945813</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01970443349753695</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7536945812807881</v>
+        <v>0.7627118644067796</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1773399014778325</v>
+        <v>0.173728813559322</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02325581395348837</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5813953488372093</v>
+        <v>0.5625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3953488372093023</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06481481481481481</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01388888888888889</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06481481481481481</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2407407407407407</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03240740740740741</v>
+        <v>0.03292181069958848</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.125</v>
+        <v>0.1316872427983539</v>
       </c>
       <c r="R6">
-        <v>0.05092592592592592</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="S6">
         <v>0.4074074074074074</v>
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1273584905660377</v>
+        <v>0.1265306122448979</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01415094339622642</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08018867924528301</v>
+        <v>0.07346938775510205</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1132075471698113</v>
+        <v>0.1265306122448979</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01415094339622642</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1509433962264151</v>
+        <v>0.1591836734693877</v>
       </c>
       <c r="R7">
-        <v>0.09905660377358491</v>
+        <v>0.09387755102040816</v>
       </c>
       <c r="S7">
-        <v>0.4009433962264151</v>
+        <v>0.3959183673469387</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1236203090507726</v>
+        <v>0.1232323232323232</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02207505518763797</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06181015452538632</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1169977924944812</v>
+        <v>0.1171717171717172</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02649006622516556</v>
+        <v>0.02626262626262626</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1479028697571744</v>
+        <v>0.1474747474747475</v>
       </c>
       <c r="R8">
-        <v>0.09271523178807947</v>
+        <v>0.08686868686868687</v>
       </c>
       <c r="S8">
-        <v>0.4083885209713024</v>
+        <v>0.4141414141414141</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1071428571428571</v>
+        <v>0.1117021276595745</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02380952380952381</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07738095238095238</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1488095238095238</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01785714285714286</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1130952380952381</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="R9">
-        <v>0.05357142857142857</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="S9">
-        <v>0.4583333333333333</v>
+        <v>0.4361702127659575</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1315996847911741</v>
+        <v>0.1320224719101123</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01891252955082742</v>
+        <v>0.01896067415730337</v>
       </c>
       <c r="E10">
-        <v>0.0007880220646178094</v>
+        <v>0.0007022471910112359</v>
       </c>
       <c r="F10">
-        <v>0.06540583136327817</v>
+        <v>0.06601123595505617</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1252955082742317</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02206461780929866</v>
+        <v>0.02036516853932584</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2159180457052798</v>
+        <v>0.2127808988764045</v>
       </c>
       <c r="R10">
-        <v>0.06461780929866036</v>
+        <v>0.07092696629213484</v>
       </c>
       <c r="S10">
-        <v>0.355397951142632</v>
+        <v>0.3546348314606741</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1476510067114094</v>
+        <v>0.1507246376811594</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06711409395973154</v>
+        <v>0.06376811594202898</v>
       </c>
       <c r="K11">
-        <v>0.2046979865771812</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="L11">
-        <v>0.5570469798657718</v>
+        <v>0.5594202898550724</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02348993288590604</v>
+        <v>0.02318840579710145</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1534090909090909</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="K12">
-        <v>0.005681818181818182</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="L12">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02840909090909091</v>
+        <v>0.03431372549019608</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8260869565217391</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1521739130434783</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02173913043478261</v>
+        <v>0.01886792452830189</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004878048780487805</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1560975609756098</v>
+        <v>0.1576576576576577</v>
       </c>
       <c r="I15">
-        <v>0.03902439024390244</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="J15">
-        <v>0.3268292682926829</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="K15">
-        <v>0.05853658536585366</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02439024390243903</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="N15">
-        <v>0.004878048780487805</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="O15">
-        <v>0.06829268292682927</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3170731707317073</v>
+        <v>0.3018018018018018</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01754385964912281</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.162280701754386</v>
+        <v>0.1532567049808429</v>
       </c>
       <c r="I16">
-        <v>0.07894736842105263</v>
+        <v>0.08812260536398467</v>
       </c>
       <c r="J16">
-        <v>0.4429824561403509</v>
+        <v>0.4329501915708812</v>
       </c>
       <c r="K16">
-        <v>0.1184210526315789</v>
+        <v>0.1187739463601533</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0131578947368421</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="N16">
-        <v>0.004385964912280702</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="O16">
-        <v>0.04824561403508772</v>
+        <v>0.04980842911877394</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1140350877192982</v>
+        <v>0.1264367816091954</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01431980906921241</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1646778042959427</v>
+        <v>0.1556503198294243</v>
       </c>
       <c r="I17">
-        <v>0.1121718377088305</v>
+        <v>0.1023454157782516</v>
       </c>
       <c r="J17">
-        <v>0.4391408114558473</v>
+        <v>0.4562899786780384</v>
       </c>
       <c r="K17">
-        <v>0.09069212410501193</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02147971360381861</v>
+        <v>0.02132196162046908</v>
       </c>
       <c r="N17">
-        <v>0.002386634844868735</v>
+        <v>0.002132196162046908</v>
       </c>
       <c r="O17">
-        <v>0.04534606205250596</v>
+        <v>0.04264392324093817</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1097852028639618</v>
+        <v>0.1002132196162047</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03105590062111801</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1677018633540373</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="I18">
-        <v>0.06832298136645963</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="J18">
-        <v>0.4658385093167702</v>
+        <v>0.4644808743169399</v>
       </c>
       <c r="K18">
-        <v>0.09937888198757763</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006211180124223602</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05590062111801242</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1055900621118012</v>
+        <v>0.1038251366120219</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01494885916601102</v>
+        <v>0.01564722617354196</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2258064516129032</v>
+        <v>0.2226173541963016</v>
       </c>
       <c r="I19">
-        <v>0.06845003933910307</v>
+        <v>0.07041251778093884</v>
       </c>
       <c r="J19">
-        <v>0.3776553894571204</v>
+        <v>0.3755334281650071</v>
       </c>
       <c r="K19">
-        <v>0.1132966168371361</v>
+        <v>0.1173541963015647</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02281667977970102</v>
+        <v>0.02489331436699858</v>
       </c>
       <c r="N19">
-        <v>0.0007867820613690008</v>
+        <v>0.0007112375533428165</v>
       </c>
       <c r="O19">
-        <v>0.05900865460267506</v>
+        <v>0.05974395448079658</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1172305271439811</v>
+        <v>0.1130867709815078</v>
       </c>
     </row>
   </sheetData>
